--- a/zadania 2 - miary średnie.xlsx
+++ b/zadania 2 - miary średnie.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="128">
   <si>
     <t>i</t>
   </si>
@@ -426,7 +426,10 @@
     <t>Zarobki brutto +8%</t>
   </si>
   <si>
-    <t>Pewną grupę ankietowanych zapytano o uzyskiwane dochody. Odpowiedzi zamieszczono w tabeli:</t>
+    <t>Premia</t>
+  </si>
+  <si>
+    <t>Pewną grupę ankietowanych zapytano o uzyskiwane dochody , odpowiedzi zamieszczono w tabeli</t>
   </si>
   <si>
     <t>xi</t>
@@ -441,7 +444,7 @@
     <t>ni</t>
   </si>
   <si>
-    <t>Na podstawie tabeli oblicz średnie dochody wśród ankietowanych.</t>
+    <t>Na podstawie tabeli oblicz srednie dochody wśród ankietowanych</t>
   </si>
   <si>
     <t>^xi</t>
@@ -450,19 +453,19 @@
     <t>^xi*ni</t>
   </si>
   <si>
-    <t>Średni dochód ankietowanych:</t>
-  </si>
-  <si>
-    <t>x śr=</t>
-  </si>
-  <si>
-    <t>xi/ni</t>
+    <t>sredni dochód ankietowanych =</t>
+  </si>
+  <si>
+    <t>ni/xi</t>
   </si>
   <si>
     <t>wi</t>
   </si>
   <si>
     <t>wi/xi</t>
+  </si>
+  <si>
+    <t>zł/tona</t>
   </si>
 </sst>
 </file>
@@ -470,9 +473,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,16 +556,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +596,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,52 +976,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1082,6 +1092,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,20 +1155,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1174,6 +1179,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1183,28 +1200,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="4"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1"/>
     <cellStyle name="Normalny 3" xfId="3"/>
-    <cellStyle name="Walutowy" xfId="5" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,16 +1254,140 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>55563</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>567538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8231188" y="254001"/>
+          <a:ext cx="5734850" cy="790685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346672</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255001" y="1198563"/>
+          <a:ext cx="4267796" cy="1314633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>581781</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:colOff>277028</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1924050"/>
+          <a:ext cx="5753903" cy="685896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591312</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1249,8 +1404,94 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="476250"/>
-          <a:ext cx="5420481" cy="2905530"/>
+          <a:off x="9525" y="438150"/>
+          <a:ext cx="5458587" cy="2486372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604586</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2058866"/>
+          <a:ext cx="6077798" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5610</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2321718"/>
+          <a:ext cx="6077798" cy="543001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,7 +1793,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1837,26 +2078,51 @@
         <v>21.09</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="61">
+        <f>SUM(B5:B27)</f>
+        <v>54.28</v>
+      </c>
+      <c r="C28" s="61">
+        <f>SUM(C5:C27)</f>
+        <v>345.47999999999996</v>
+      </c>
+    </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="60">
+        <f>SUM(B5:B27)/23</f>
+        <v>2.36</v>
+      </c>
+      <c r="C30" s="60">
+        <f>SUM(C5:C27)/23</f>
+        <v>15.02086956521739</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="25">
+        <f>AVERAGE(B5:B27)</f>
+        <v>2.36</v>
+      </c>
+      <c r="C31" s="62">
+        <f>AVERAGE(C5:C27)</f>
+        <v>15.02086956521739</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5764,7 +6030,7 @@
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -5773,14 +6039,14 @@
       <c r="D4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="10">
@@ -5793,14 +6059,14 @@
         <v>14</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="10">
@@ -5813,14 +6079,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="10">
@@ -5833,14 +6099,14 @@
         <v>35</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="10">
@@ -5853,14 +6119,14 @@
         <v>13</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="10">
@@ -5873,14 +6139,14 @@
         <v>19</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="10">
@@ -5893,33 +6159,33 @@
         <v>4</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42">
         <f>SUM(C5:C10)</f>
         <v>94</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="D11" s="42"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
@@ -5934,51 +6200,51 @@
         <v>32</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
@@ -5990,17 +6256,17 @@
         <v>81</v>
       </c>
       <c r="B19" s="34"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6295,7 +6561,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6306,7 +6572,7 @@
     <col min="4" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6323,39 +6589,39 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="53" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="43">
         <v>4300</v>
       </c>
       <c r="D4" s="29">
@@ -6365,169 +6631,169 @@
         <f>C4*D4</f>
         <v>860000</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="70">
         <f>D4+D5+D6</f>
         <v>350</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="50">
         <f>C4*0.68</f>
         <v>2924</v>
       </c>
-      <c r="H4" s="49">
-        <f>C4*1.08</f>
+      <c r="H4" s="50">
+        <f>C4+0.08*C4</f>
         <v>4644</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="49">
+      <c r="B5" s="67"/>
+      <c r="C5" s="50">
         <v>5000</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="50">
         <v>100</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" ref="E5:E9" si="0">C5*D5</f>
         <v>500000</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="49">
+      <c r="F5" s="71"/>
+      <c r="G5" s="50">
         <f t="shared" ref="G5:G9" si="1">C5*0.68</f>
         <v>3400.0000000000005</v>
       </c>
-      <c r="H5" s="49">
-        <f t="shared" ref="H5:H9" si="2">C5*1.08</f>
+      <c r="H5" s="50">
+        <f t="shared" ref="H5:H9" si="2">C5+0.08*C5</f>
         <v>5400</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="49">
+      <c r="B6" s="67"/>
+      <c r="C6" s="50">
         <v>6200</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="50">
         <v>50</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="0"/>
         <v>310000</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="49">
+      <c r="F6" s="71"/>
+      <c r="G6" s="50">
         <f t="shared" si="1"/>
         <v>4216</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="50">
         <f t="shared" si="2"/>
         <v>6696</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="50">
         <v>10000</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="50">
         <v>20</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="72">
         <f>D7+D8+D9</f>
         <v>26</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="50">
         <f t="shared" si="1"/>
         <v>6800.0000000000009</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="50">
         <f t="shared" si="2"/>
         <v>10800</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="49">
+      <c r="B8" s="68"/>
+      <c r="C8" s="50">
         <v>30000</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="50">
         <v>5</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="49">
+      <c r="F8" s="72"/>
+      <c r="G8" s="50">
         <f t="shared" si="1"/>
         <v>20400</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="50">
         <f t="shared" si="2"/>
-        <v>32400.000000000004</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="47">
+      <c r="B9" s="69"/>
+      <c r="C9" s="48">
         <v>150000</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="48">
         <v>1</v>
       </c>
       <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="49">
+      <c r="F9" s="73"/>
+      <c r="G9" s="50">
         <f t="shared" si="1"/>
         <v>102000.00000000001</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="50">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45">
         <f>SUM(D4:D9)</f>
         <v>376</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="46">
         <f>SUM(E4:E9)</f>
         <v>2170000</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="43">
+      <c r="F10" s="45"/>
+      <c r="G10" s="44">
         <f>SUM(G4:G9)</f>
         <v>139740</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="44">
         <f>SUM(H4:H9)</f>
         <v>221940</v>
       </c>
@@ -6540,114 +6806,113 @@
       <c r="F12" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="80">
         <f>E10/D10</f>
         <v>5771.2765957446809</v>
       </c>
-      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:10" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="79">
         <f>SUMPRODUCT(G4:G9,D4:D9)/D10</f>
         <v>3924.4680851063831</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="82">
         <f>SUMPRODUCT(G4:G6,D4:D6)/F4</f>
         <v>3244.5714285714284</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="F17" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="82">
         <f>SUMPRODUCT(G7:G9,D7:D9)/F7</f>
         <v>13076.92307692308</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
       <c r="F19" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="81">
         <f>(J16*F4+J17*F7)/D10</f>
         <v>3924.4680851063831</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
       <c r="F21" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="83">
         <f>SUMPRODUCT(H4:H9,D4:D9)/D10</f>
         <v>6232.9787234042551</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6661,6 +6926,7 @@
     <mergeCell ref="A18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6678,6 +6944,7 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="63" customHeight="1" thickBot="1">
@@ -6693,18 +6960,20 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
@@ -6716,9 +6985,13 @@
       <c r="C2" s="7">
         <v>8</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="63">
         <f>B2/C2</f>
         <v>986.25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(D2&gt;1000,"OTRZYMANO","NIE otrzymano")</f>
+        <v>NIE otrzymano</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -6734,9 +7007,13 @@
       <c r="C3" s="7">
         <v>9</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="63">
         <f t="shared" ref="D3:D25" si="0">B3/C3</f>
         <v>502.66666666666669</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E25" si="1">IF(D3&gt;1000,"OTRZYMANO","NIE otrzymano")</f>
+        <v>NIE otrzymano</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -6752,9 +7029,13 @@
       <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="63">
         <f t="shared" si="0"/>
         <v>1321.75</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -6770,20 +7051,24 @@
       <c r="C5" s="5">
         <v>6</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="63">
         <f t="shared" si="0"/>
         <v>579.66666666666663</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
@@ -6795,18 +7080,22 @@
       <c r="C6" s="5">
         <v>12</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="63">
         <f t="shared" si="0"/>
         <v>802.08333333333337</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
@@ -6818,18 +7107,22 @@
       <c r="C7" s="5">
         <v>11</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="63">
         <f t="shared" si="0"/>
         <v>1239.909090909091</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
@@ -6841,9 +7134,13 @@
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="63">
         <f t="shared" si="0"/>
         <v>845.85714285714289</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6856,9 +7153,13 @@
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="63">
         <f t="shared" si="0"/>
         <v>2405.5</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6871,9 +7172,13 @@
       <c r="C10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="63">
         <f t="shared" si="0"/>
         <v>384.14285714285717</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6886,9 +7191,13 @@
       <c r="C11" s="5">
         <v>9</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="63">
         <f t="shared" si="0"/>
         <v>576.66666666666663</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6901,9 +7210,13 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="63">
         <f t="shared" si="0"/>
         <v>1289</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -6916,9 +7229,13 @@
       <c r="C13" s="5">
         <v>13</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="63">
         <f t="shared" si="0"/>
         <v>568.92307692307691</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6931,9 +7248,13 @@
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="63">
         <f t="shared" si="0"/>
         <v>838.8</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -6946,9 +7267,13 @@
       <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="63">
         <f t="shared" si="0"/>
         <v>1047.8333333333333</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6961,27 +7286,35 @@
       <c r="C16" s="5">
         <v>5</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="63">
         <f t="shared" si="0"/>
         <v>969</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="77">
         <v>7310</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="77">
         <v>2</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="78">
         <f t="shared" si="0"/>
         <v>3655</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -6991,12 +7324,16 @@
       <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="63">
         <f t="shared" si="0"/>
         <v>2548</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -7006,12 +7343,16 @@
       <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="63">
         <f t="shared" si="0"/>
         <v>232.61538461538461</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -7021,12 +7362,16 @@
       <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="63">
         <f t="shared" si="0"/>
         <v>1190.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -7036,12 +7381,16 @@
       <c r="C21" s="5">
         <v>9</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="63">
         <f t="shared" si="0"/>
         <v>903.44444444444446</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -7051,12 +7400,16 @@
       <c r="C22" s="5">
         <v>6</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="63">
         <f t="shared" si="0"/>
         <v>855.16666666666663</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -7066,12 +7419,16 @@
       <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="63">
         <f t="shared" si="0"/>
         <v>1279.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>OTRZYMANO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -7081,12 +7438,16 @@
       <c r="C24" s="5">
         <v>10</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="63">
         <f t="shared" si="0"/>
         <v>953.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -7096,9 +7457,13 @@
       <c r="C25" s="8">
         <v>4</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="63">
         <f t="shared" si="0"/>
         <v>968</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>NIE otrzymano</v>
       </c>
     </row>
   </sheetData>
@@ -7113,180 +7478,184 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="78" t="s">
+      <c r="D3" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="F3" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="85">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="86">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="86">
         <v>1000</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="87">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <f>(B4+C4)/2</f>
         <v>500</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <f>E4*D4</f>
         <v>6000</v>
       </c>
-      <c r="H4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="85">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="86">
         <v>1001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="86">
         <v>3000</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="87">
         <v>26</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E8" si="0">(B5+C5)/2</f>
+      <c r="E5">
+        <f>(B5+C5)/2</f>
         <v>2000.5</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F8" si="1">E5*D5</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="0">E5*D5</f>
         <v>52013</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="77">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>4000.5</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>132016.5</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H5" t="s">
         <v>123</v>
       </c>
-      <c r="I6">
+      <c r="K5" s="61">
         <f>F9/D9</f>
         <v>4394.378787878788</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
+    <row r="6" spans="1:11">
+      <c r="A6" s="85">
+        <v>3</v>
+      </c>
+      <c r="B6" s="86">
+        <v>3001</v>
+      </c>
+      <c r="C6" s="86">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="87">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <f>(B6+C6)/2</f>
+        <v>4000.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>132016.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="85">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="86">
         <v>5001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="86">
         <v>10000</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="87">
         <v>21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
+        <f>(B7+C7)/2</f>
+        <v>7500.5</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>7500.5</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
         <v>157510.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="76">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A8" s="88">
         <v>5</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="89">
         <v>10001</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="89">
         <v>15000</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="90">
         <v>7</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8">
+        <f>(B8+C8)/2</f>
+        <v>12500.5</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>12500.5</v>
-      </c>
-      <c r="F8" s="76">
-        <f t="shared" si="1"/>
         <v>87503.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80">
+    <row r="9" spans="1:11">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
         <f>SUM(D4:D8)</f>
         <v>99</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <f>SUM(F4:F8)</f>
         <v>435043.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>119</v>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7295,7 +7664,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7316,7 +7685,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7327,30 +7696,30 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -7359,22 +7728,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>124</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="35">
         <f>C10/D10</f>
         <v>71.435717858929465</v>
       </c>
@@ -7428,15 +7797,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37">
         <f>SUM(C7:C9)</f>
         <v>200</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="37">
         <f>SUM(D7:D9)</f>
         <v>2.7997198879551819</v>
       </c>
@@ -7446,6 +7815,7 @@
     <mergeCell ref="A2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7454,54 +7824,54 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -7515,16 +7885,16 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7536,18 +7906,21 @@
         <v>2650</v>
       </c>
       <c r="C7" s="29">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="D7" s="29">
         <f>C7/B7</f>
-        <v>1.0188679245283019E-2</v>
+        <v>1.018867924528302E-4</v>
       </c>
       <c r="F7" t="s">
         <v>75</v>
       </c>
       <c r="H7">
-        <f>C11/D11</f>
+        <f>1/D11</f>
         <v>2236.0516693048207</v>
+      </c>
+      <c r="I7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -7558,11 +7931,11 @@
         <v>2430</v>
       </c>
       <c r="C8" s="29">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="D8" s="29">
         <f t="shared" ref="D8:D10" si="0">C8/B8</f>
-        <v>6.1728395061728392E-3</v>
+        <v>6.1728395061728397E-5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -7573,11 +7946,11 @@
         <v>1950</v>
       </c>
       <c r="C9" s="29">
-        <v>29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D9" s="29">
         <f t="shared" si="0"/>
-        <v>1.4871794871794871E-2</v>
+        <v>1.4871794871794872E-4</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1">
@@ -7588,25 +7961,25 @@
         <v>2150</v>
       </c>
       <c r="C10" s="29">
-        <v>29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D10" s="29">
         <f t="shared" si="0"/>
-        <v>1.3488372093023256E-2</v>
+        <v>1.3488372093023256E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37">
         <f>SUM(C7:C10)</f>
-        <v>100</v>
-      </c>
-      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37">
         <f>SUM(D7:D10)</f>
-        <v>4.4721685716273982E-2</v>
+        <v>4.4721685716273983E-4</v>
       </c>
     </row>
   </sheetData>
@@ -7614,6 +7987,7 @@
     <mergeCell ref="A1:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
